--- a/ESPN sports website/IPL/Mumbai Indians/Jasprit Bumrah.xlsx
+++ b/ESPN sports website/IPL/Mumbai Indians/Jasprit Bumrah.xlsx
@@ -448,7 +448,7 @@
         <v>0</v>
       </c>
       <c r="D2" t="str">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="E2" t="str">
         <v>0</v>
@@ -460,16 +460,16 @@
         <v>0.00</v>
       </c>
       <c r="H2" t="str">
-        <v>Sunrisers Hyderabad</v>
+        <v>Rajasthan Royals</v>
       </c>
       <c r="I2" t="str">
-        <v>Wankhede</v>
+        <v>DY Patil</v>
       </c>
       <c r="J2" t="str">
-        <v>May 17, 2022</v>
+        <v>April 02, 2022</v>
       </c>
       <c r="K2" t="str">
-        <v>Sunrisers won by 3 runs</v>
+        <v>Royals won by 23 runs</v>
       </c>
     </row>
     <row r="3">
@@ -483,7 +483,7 @@
         <v>0</v>
       </c>
       <c r="D3" t="str">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="E3" t="str">
         <v>0</v>
@@ -492,19 +492,19 @@
         <v>0</v>
       </c>
       <c r="G3" t="str">
-        <v>0.00</v>
+        <v>-</v>
       </c>
       <c r="H3" t="str">
-        <v>Rajasthan Royals</v>
+        <v>Lucknow Super Giants</v>
       </c>
       <c r="I3" t="str">
-        <v>DY Patil</v>
+        <v>Brabourne</v>
       </c>
       <c r="J3" t="str">
-        <v>April 02, 2022</v>
+        <v>April 16, 2022</v>
       </c>
       <c r="K3" t="str">
-        <v>Royals won by 23 runs</v>
+        <v>Super Giants won by 18 runs</v>
       </c>
     </row>
     <row r="4">
@@ -553,7 +553,7 @@
         <v>0</v>
       </c>
       <c r="D5" t="str">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="E5" t="str">
         <v>0</v>
@@ -562,19 +562,19 @@
         <v>0</v>
       </c>
       <c r="G5" t="str">
-        <v>-</v>
+        <v>0.00</v>
       </c>
       <c r="H5" t="str">
-        <v>Lucknow Super Giants</v>
+        <v>Sunrisers Hyderabad</v>
       </c>
       <c r="I5" t="str">
-        <v>Brabourne</v>
+        <v>Wankhede</v>
       </c>
       <c r="J5" t="str">
-        <v>April 16, 2022</v>
+        <v>May 17, 2022</v>
       </c>
       <c r="K5" t="str">
-        <v>Super Giants won by 18 runs</v>
+        <v>Sunrisers won by 3 runs</v>
       </c>
     </row>
     <row r="6">
